--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,26 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18720" windowHeight="7065"/>
+    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="4" r:id="rId1"/>
-    <sheet name="USDOE data" sheetId="2" r:id="rId2"/>
+    <sheet name="About" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>International Energy Agency</t>
+  </si>
+  <si>
+    <t>CHP/DHC Country Scorecard: United States</t>
+  </si>
+  <si>
+    <t>http://www.iea.org/publications/insights/insightpublications/US_CountryScorecard_FINAL.pdf</t>
+  </si>
+  <si>
+    <t>Page 37, Table 2, Sub-table 3</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>We use these as a stand-in for the fuel use fractions of district heating</t>
+  </si>
+  <si>
+    <t>systems (about half of which are CHP systems), because we do not</t>
+  </si>
+  <si>
+    <t>have data specifically on fuel use fractions of district heating systems.</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Biogas/Biomass</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Fuel input for additional CHP capacity (GWh)</t>
+  </si>
+  <si>
+    <t>We don't have fuel fractions used by the total installed base, so we use</t>
+  </si>
+  <si>
+    <t>Sum of Years Above</t>
+  </si>
+  <si>
+    <t>Fraction by Fuel</t>
+  </si>
+  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -39,66 +106,59 @@
     <t>heat</t>
   </si>
   <si>
-    <t>US Department of Energy, CHP Technical Assistance Project</t>
-  </si>
-  <si>
-    <t>https://energy.gov/sites/prod/files/2017/11/f39/StateOfCHP-California.pdf</t>
-  </si>
-  <si>
-    <t>(accessed 8 February 2017)</t>
-  </si>
-  <si>
-    <t>biomass+waste+wood</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total </t>
-  </si>
-  <si>
-    <t>BAU Frac of Heat Provided by Fuel</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To align with EPS structure, combine wood and waste to biomass. </t>
-  </si>
-  <si>
-    <t>Data from the chart shown below</t>
-  </si>
-  <si>
-    <t>Use a constant forecast method.   That is to say:  assume these fractions remain constant in future years.</t>
-  </si>
-  <si>
-    <t>Conversion for MWh to Btu</t>
-  </si>
-  <si>
-    <t>https://www.iea.org/statistics/resources/unitconverter/</t>
-  </si>
-  <si>
-    <t>Intl Energy Agency, Unit Converter</t>
-  </si>
-  <si>
-    <t>Not dated - accessed Feb 7, 2017</t>
-  </si>
-  <si>
-    <t>This variable is intended to capture the breakdown in fuels for dedicated, heat-only facilities ("district heat" as defined by EPS)</t>
-  </si>
-  <si>
-    <t>serving the buildings sector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In lieu of other data, the fuel break down for combined heat and power units is used. </t>
+    <t>Reallocating "Other" into modeled fuel categories</t>
+  </si>
+  <si>
+    <t>the fuel fractions from the available years' newly installed capacities.</t>
+  </si>
+  <si>
+    <t>BFoHPbF BAU Fraction of Heat Provided by Fuel</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Fuel use by fuel (fractions) are provided for CHP systems.</t>
+  </si>
+  <si>
+    <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>Note on Heat Pumps</t>
+  </si>
+  <si>
+    <t>The "electricity" fuel type represents heat pumps.</t>
+  </si>
+  <si>
+    <t>This can be changed by altering dist-heat/EoCtUH.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,24 +173,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -138,38 +196,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -181,57 +237,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508774</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>77088</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1123951" y="2647949"/>
-          <a:ext cx="2937648" cy="4668139"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -277,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +320,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +372,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,12 +564,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -533,321 +678,392 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>2006</v>
+      </c>
+      <c r="D2">
+        <v>2008</v>
+      </c>
+      <c r="E2">
+        <v>2009</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+      <c r="H2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>55622.2</v>
+      </c>
+      <c r="C3">
+        <v>7957.9</v>
+      </c>
+      <c r="D3">
+        <v>5249.4</v>
+      </c>
+      <c r="E3">
+        <v>5271</v>
+      </c>
+      <c r="F3">
+        <v>14497.7</v>
+      </c>
+      <c r="G3">
+        <v>5215.6000000000004</v>
+      </c>
+      <c r="H3">
+        <v>8544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8003.3</v>
+      </c>
+      <c r="C4">
+        <v>876</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3551.7</v>
+      </c>
+      <c r="F4">
+        <v>1513.1</v>
+      </c>
+      <c r="G4">
+        <v>995.4</v>
+      </c>
+      <c r="H4">
+        <v>12343.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>4050.7</v>
+      </c>
+      <c r="C5">
+        <v>456.6</v>
+      </c>
+      <c r="D5">
+        <v>18.5</v>
+      </c>
+      <c r="E5">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="F5">
+        <v>115.9</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1090.2</v>
+      </c>
+      <c r="C6">
+        <v>2533.9</v>
+      </c>
+      <c r="D6">
+        <v>859.4</v>
+      </c>
+      <c r="E6">
+        <v>10628.4</v>
+      </c>
+      <c r="F6">
+        <v>1133.5</v>
+      </c>
+      <c r="G6">
+        <v>4829.3999999999996</v>
+      </c>
+      <c r="H6">
+        <v>4055.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B7">
+        <v>7030.9</v>
+      </c>
+      <c r="C7">
+        <v>4116.6000000000004</v>
+      </c>
+      <c r="D7">
+        <v>6967.4</v>
+      </c>
+      <c r="E7">
+        <v>4280.5</v>
+      </c>
+      <c r="F7">
+        <v>468.1</v>
+      </c>
+      <c r="G7">
+        <v>10068.299999999999</v>
+      </c>
+      <c r="H7">
+        <v>2641.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <f>3.41214163*1000000</f>
-        <v>3412141.63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="4" t="s">
-        <v>19</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <f>SUM(B3:H3)</f>
+        <v>102357.8</v>
+      </c>
+      <c r="C10" s="8">
+        <f>B10/SUM(B$10:B$14)</f>
+        <v>0.52282852429039151</v>
+      </c>
+      <c r="D10" s="8">
+        <f>C10+C$14*(C10/SUM(C$10:C$13))</f>
+        <v>0.63892242256425869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" ref="B11:B14" si="0">SUM(B4:H4)</f>
+        <v>27282.9</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:C14" si="1">B11/SUM(B$10:B$14)</f>
+        <v>0.13935702355230695</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:D13" si="2">C11+C$14*(C11/SUM(C$10:C$13))</f>
+        <v>0.17030120384160674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>5432.5999999999995</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7748918412275184E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="2"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>25130.5</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12836288225889658</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.15686581716538556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>35573.200000000004</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.18170265148612963</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <f>C6/$C$10</f>
-        <v>0.85307835820895528</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7316</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <f>C7/$C$10</f>
-        <v>0.13327891791044777</v>
-      </c>
-      <c r="C7" s="3">
-        <f>356+594+193</f>
-        <v>1143</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <f>C8/$C$10</f>
-        <v>1.1777052238805969E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <f>101</f>
-        <v>101</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <f>C9/$C$10</f>
-        <v>1.8656716417910447E-3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <f>SUM(B6:B9)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <f>SUM(C6:C9)</f>
-        <v>8576</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AK7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="9">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="9">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="9">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="9">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="9">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="9">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="9">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="9">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="9">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="9">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="9">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="9">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="9">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="9">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="9">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="9">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="9">
         <v>2049</v>
       </c>
       <c r="AK1">
@@ -856,823 +1072,1485 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
+        <f>$B2</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f t="shared" ref="D2:AK7" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="10">
+        <f>Data!D11</f>
+        <v>0.17030120384160674</v>
       </c>
       <c r="C3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" ref="C3:R11" si="1">$B3</f>
+        <v>0.17030120384160674</v>
       </c>
       <c r="D3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="E3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="F3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="G3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="H3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="I3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="J3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="K3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="L3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="M3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="N3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="O3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="P3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Q3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="R3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="S3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="T3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="U3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="V3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="W3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="X3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Y3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Z3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AA3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AB3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AC3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AD3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AE3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AF3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AG3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AH3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AI3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AJ3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AK3">
-        <f>'USDOE data'!$B$8</f>
-        <v>1.1777052238805969E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="10">
+        <f>Data!D10</f>
+        <v>0.63892242256425869</v>
       </c>
       <c r="C4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="1"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="D4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="E4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="F4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="G4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="H4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="I4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="J4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="K4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="L4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="M4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="N4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="O4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="P4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Q4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="R4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="S4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="T4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="U4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="V4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="W4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="X4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Y4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Z4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AA4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AB4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AC4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AD4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AE4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AF4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AG4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AH4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AI4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AJ4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AK4">
-        <f>'USDOE data'!$B$6</f>
-        <v>0.85307835820895528</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="10">
+        <f>Data!D13</f>
+        <v>0.15686581716538556</v>
       </c>
       <c r="C5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="1"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="D5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="E5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="F5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="G5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="H5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="I5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="J5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="K5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="L5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="M5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="N5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="O5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="P5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Q5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="R5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="S5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="T5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="U5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="V5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="W5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="X5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Y5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Z5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AA5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AB5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AC5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AD5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AE5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AF5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AG5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AH5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AI5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AJ5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AK5">
-        <f>'USDOE data'!$B$7</f>
-        <v>0.13327891791044777</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="10">
+        <f>Data!D12</f>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="C6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="D6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="E6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="F6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="G6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="H6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="I6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="J6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="K6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="L6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="M6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="N6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="O6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="P6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Q6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="R6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="S6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="T6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="U6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="V6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="W6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="X6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Y6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Z6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AA6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AB6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AC6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AD6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AE6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AF6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AG6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AH6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AI6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AJ6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AK6">
-        <f>'USDOE data'!$B$9</f>
-        <v>1.8656716417910447E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:AH11" si="2">$B8</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" ref="AI8:AK11" si="3">$B8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
